--- a/可视化数据/贵州旅游数据汇总.xlsx
+++ b/可视化数据/贵州旅游数据汇总.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\陈愿\Desktop\可视化数据\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{897C0888-652C-4F50-BF59-4DCBFBCCC633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="1220" windowWidth="17770" windowHeight="12320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="16704" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="v2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="67">
   <si>
     <t>年份</t>
   </si>
@@ -227,11 +234,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,20 +258,151 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,8 +415,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -297,12 +625,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -316,178 +883,108 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -498,7 +995,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -526,40 +1023,154 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -809,28 +1420,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26851851851852" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="3" width="13"/>
-    <col min="4" max="4" width="15.08984375" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.0925925925926" customWidth="1"/>
+    <col min="5" max="5" width="16.1759259259259" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -853,7 +1464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,12 +1474,12 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="4">
         <f>10000*C2/B2</f>
-        <v>783.57534688609223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>783.575346886092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,22 +1491,22 @@
       </c>
       <c r="D3" s="3">
         <f>(B3-B2)/B2</f>
-        <v>0.53207163601161678</v>
+        <v>0.532071636011617</v>
       </c>
       <c r="E3" s="3">
         <f>(C3-C2)/C2</f>
-        <v>0.59391343738417823</v>
-      </c>
-      <c r="F3" s="7">
+        <v>0.593913437384178</v>
+      </c>
+      <c r="F3" s="4">
         <f t="shared" ref="F3:F20" si="0">10000*C3/B3</f>
-        <v>815.20422756213804</v>
+        <v>815.204227562138</v>
       </c>
       <c r="G3" s="3">
         <f>(F3-F2)/F2</f>
-        <v>4.0364823627667905E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0403648236276679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -907,22 +1518,22 @@
       </c>
       <c r="D4" s="3">
         <f t="shared" ref="D4:D23" si="1">(B4-B3)/B3</f>
-        <v>0.31908911116306399</v>
+        <v>0.319089111163064</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E20" si="2">(C4-C3)/C3</f>
-        <v>0.32354992894974799</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" si="0"/>
-        <v>817.96103715696745</v>
+        <v>0.323549928949748</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>817.961037156967</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" ref="G4:G20" si="3">(F4-F3)/F3</f>
-        <v>3.381741043067973E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.00338174104306797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -934,22 +1545,22 @@
       </c>
       <c r="D5" s="3">
         <f t="shared" si="1"/>
-        <v>0.30773971760640839</v>
+        <v>0.307739717606408</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="2"/>
-        <v>0.27494729444834864</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="0"/>
-        <v>797.45013265805721</v>
+        <v>0.274947294448349</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>797.450132658057</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="3"/>
-        <v>-2.5075649776914954E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-0.025075649776915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -961,22 +1572,22 @@
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
-        <v>0.27468337275021598</v>
+        <v>0.274683372750216</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="2"/>
-        <v>0.23287859997244043</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>771.29679739845494</v>
+        <v>0.23287859997244</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>771.296797398455</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="3"/>
-        <v>-3.2796201528524541E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-0.0327962015285245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -988,22 +1599,22 @@
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
-        <v>0.23688523412468446</v>
+        <v>0.236885234124684</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="2"/>
-        <v>0.31792158762092815</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="0"/>
-        <v>821.82944036329218</v>
+        <v>0.317921587620928</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>821.829440363292</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="3"/>
-        <v>6.5516469321902138E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0655164693219021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1015,22 +1626,22 @@
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
-        <v>0.31799997212116143</v>
+        <v>0.317999972121161</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="2"/>
-        <v>0.34700300594593064</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" si="0"/>
-        <v>839.91407432476899</v>
+        <v>0.347003005945931</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>839.914074324769</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="3"/>
-        <v>2.2005337206564959E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.022005337206565</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1042,22 +1653,22 @@
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>0.25746091509904012</v>
+        <v>0.25746091509904</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="2"/>
-        <v>0.30128438313232786</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="0"/>
-        <v>869.18571779686908</v>
+        <v>0.301284383132328</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>869.185717796869</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="3"/>
-        <v>3.4850759579939661E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0348507595799397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1069,22 +1680,22 @@
       </c>
       <c r="D10" s="3">
         <f t="shared" si="1"/>
-        <v>0.25045815230748952</v>
+        <v>0.25045815230749</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="2"/>
-        <v>0.27443338207466023</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="0"/>
-        <v>885.85075153355899</v>
+        <v>0.27443338207466</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>885.850751533559</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="3"/>
-        <v>1.9173156433047334E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0191731564330473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1096,22 +1707,22 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" si="1"/>
-        <v>0.20079981226607996</v>
+        <v>0.20079981226608</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="2"/>
-        <v>0.22159745217556362</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" si="0"/>
-        <v>901.19352953514158</v>
+        <v>0.221597452175564</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>901.193529535142</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="3"/>
-        <v>1.7319822752333413E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0173198227523334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -1123,22 +1734,22 @@
       </c>
       <c r="D12" s="3">
         <f t="shared" si="1"/>
-        <v>0.17099985249700181</v>
+        <v>0.170999852497002</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>0.21299870855461714</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" si="0"/>
-        <v>933.51556377476379</v>
+        <v>0.212998708554617</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>933.515563774764</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="3"/>
-        <v>3.586580815365456E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0358658081536546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1154,18 +1765,18 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" si="2"/>
-        <v>0.43119772718214988</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>945.94345419863851</v>
+        <v>0.43119772718215</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>945.943454198639</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="3"/>
-        <v>1.3312997561198973E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.013312997561199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -1177,22 +1788,22 @@
       </c>
       <c r="D14" s="3">
         <f t="shared" si="1"/>
-        <v>0.40018141649366051</v>
+        <v>0.400181416493661</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="2"/>
-        <v>0.41556506760761736</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>956.33643892297823</v>
+        <v>0.415565067607617</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>956.336438922978</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="3"/>
-        <v>1.0986898506681039E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.010986898506681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -1204,22 +1815,22 @@
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>0.30155153167745791</v>
+        <v>0.301551531677458</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>0.33079708464888063</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>977.82509096810884</v>
+        <v>0.330797084648881</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>977.825090968109</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="3"/>
-        <v>2.2469761864695889E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0224697618646959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -1231,22 +1842,22 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" si="1"/>
-        <v>0.17209171518092661</v>
+        <v>0.172091715180927</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="2"/>
-        <v>0.30068852067832114</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>1085.1078073332592</v>
+        <v>0.300688520678321</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>1085.10780733326</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="3"/>
         <v>0.109715650944213</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
@@ -1258,22 +1869,22 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" si="1"/>
-        <v>-0.45579723166200703</v>
+        <v>-0.455797231662007</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="2"/>
-        <v>-0.53038755209491784</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>936.37916469803497</v>
+        <v>-0.530387552094918</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>936.379164698035</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="3"/>
-        <v>-0.1370634711409339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-0.137063471140934</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -1285,22 +1896,22 @@
       </c>
       <c r="D18" s="3">
         <f t="shared" si="1"/>
-        <v>4.2977111753050995E-2</v>
+        <v>0.042977111753051</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="2"/>
-        <v>0.14815154128976379</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>1030.804194132907</v>
+        <v>0.148151541289764</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>1030.80419413291</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="3"/>
-        <v>0.10084059213910679</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.100840592139107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
@@ -1312,22 +1923,22 @@
       </c>
       <c r="D19" s="3">
         <f t="shared" si="1"/>
-        <v>-0.23635295921515515</v>
+        <v>-0.236352959215155</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="2"/>
-        <v>-0.21025088224312566</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>1066.0379199006318</v>
+        <v>-0.210250882243126</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>1066.03791990063</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="3"/>
-        <v>3.4180813357441477E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0341808133574415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -1339,109 +1950,113 @@
       </c>
       <c r="D20" s="3">
         <f t="shared" si="1"/>
-        <v>0.2916575893452299</v>
+        <v>0.29165758934523</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="2"/>
-        <v>0.41156465178700785</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" si="0"/>
-        <v>1165.000273763799</v>
+        <v>0.411564651787008</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>1165.0002737638</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="3"/>
-        <v>9.2831926534463011E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+        <v>0.092831926534463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <f>B20*(1+D20)</f>
-        <v>82095.741392943426</v>
-      </c>
-      <c r="C21" s="5">
+        <v>82095.7413929434</v>
+      </c>
+      <c r="C21" s="6">
         <f>B21*F21/10000</f>
-        <v>9564.1538722779096</v>
+        <v>9564.15387227791</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" si="1"/>
-        <v>0.29165758934522973</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5">
+        <v>0.29165758934523</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6">
         <v>1165</v>
       </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <f>B21*(1+D20)</f>
-        <v>106039.5874231187</v>
-      </c>
-      <c r="C22" s="5">
+        <v>106039.587423119</v>
+      </c>
+      <c r="C22" s="6">
         <f>B22*F22/10000</f>
-        <v>12353.611934793329</v>
+        <v>12353.6119347933</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" si="1"/>
-        <v>0.29165758934522978</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5">
+        <v>0.29165758934523</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6">
         <v>1165</v>
       </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <f>B22*(1+D20)</f>
-        <v>136966.83786610825</v>
-      </c>
-      <c r="C23" s="5">
+        <v>136966.837866108</v>
+      </c>
+      <c r="C23" s="6">
         <f>B23*F23/10000</f>
-        <v>15956.636611401611</v>
+        <v>15956.6366114016</v>
       </c>
       <c r="D23" s="8">
         <f t="shared" si="1"/>
-        <v>0.29165758934522978</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5">
+        <v>0.29165758934523</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6">
         <v>1165</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26851851851852" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="15.26953125"/>
-    <col min="3" max="3" width="13"/>
-    <col min="4" max="4" width="12.90625"/>
+    <col min="2" max="2" width="15.2685185185185"/>
+    <col min="3" max="3" width="27.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="17.2222222222222" customWidth="1"/>
+    <col min="5" max="5" width="11.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="15.4444444444444" customWidth="1"/>
+    <col min="7" max="7" width="15.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1464,575 +2079,560 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7">
-        <f t="shared" ref="F2:F20" si="0">10000*C2/B2</f>
-        <v>783.57534688609223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="e">
+        <f>(B2-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E2" s="3" t="e">
+        <f>(C2-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F19" si="0">10000*C2/B2</f>
+        <v>815.204227562138</v>
+      </c>
+      <c r="G2" s="3" t="e">
+        <f>(F2-#REF!)/#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D20" si="1">(B3-B2)/B2</f>
-        <v>0.53207163601161678</v>
+        <f t="shared" ref="D2:D19" si="1">(B3-B2)/B2</f>
+        <v>0.319089111163064</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E20" si="2">(C3-C2)/C2</f>
-        <v>0.59391343738417823</v>
-      </c>
-      <c r="F3" s="7">
-        <f t="shared" si="0"/>
-        <v>815.20422756213804</v>
+        <f t="shared" ref="E2:E19" si="2">(C3-C2)/C2</f>
+        <v>0.323549928949748</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="0"/>
+        <v>817.961037156967</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G20" si="3">(F3-F2)/F2</f>
-        <v>4.0364823627667905E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G2:G19" si="3">(F3-F2)/F2</f>
+        <v>0.00338174104306797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="1"/>
-        <v>0.31908911116306399</v>
+        <v>0.307739717606408</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="2"/>
-        <v>0.32354992894974799</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" si="0"/>
-        <v>817.96103715696745</v>
+        <v>0.274947294448349</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>797.450132658057</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="3"/>
-        <v>3.381741043067973E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-0.025075649776915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="1"/>
-        <v>0.30773971760640839</v>
+        <v>0.274683372750216</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="2"/>
-        <v>0.27494729444834864</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="0"/>
-        <v>797.45013265805721</v>
+        <v>0.23287859997244</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>771.296797398455</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="3"/>
-        <v>-2.5075649776914954E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-0.0327962015285245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
-        <v>0.27468337275021598</v>
+        <v>0.236885234124684</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="2"/>
-        <v>0.23287859997244043</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>771.29679739845494</v>
+        <v>0.317921587620928</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>821.829440363292</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="3"/>
-        <v>-3.2796201528524541E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0655164693219021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
-        <v>0.23688523412468446</v>
+        <v>0.317999972121161</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="2"/>
-        <v>0.31792158762092815</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="0"/>
-        <v>821.82944036329218</v>
+        <v>0.347003005945931</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>839.914074324769</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="3"/>
-        <v>6.5516469321902138E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.022005337206565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
-        <v>0.31799997212116143</v>
+        <v>0.25746091509904</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="2"/>
-        <v>0.34700300594593064</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" si="0"/>
-        <v>839.91407432476899</v>
+        <v>0.301284383132328</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>869.185717796869</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="3"/>
-        <v>2.2005337206564959E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0348507595799397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>0.25746091509904012</v>
+        <v>0.25045815230749</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="2"/>
-        <v>0.30128438313232786</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="0"/>
-        <v>869.18571779686908</v>
+        <v>0.27443338207466</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>885.850751533559</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="3"/>
-        <v>3.4850759579939661E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0191731564330473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="1"/>
-        <v>0.25045815230748952</v>
+        <v>0.20079981226608</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="2"/>
-        <v>0.27443338207466023</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="0"/>
-        <v>885.85075153355899</v>
+        <v>0.221597452175564</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>901.193529535142</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="3"/>
-        <v>1.9173156433047334E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0173198227523334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="1"/>
-        <v>0.20079981226607996</v>
+        <v>0.170999852497002</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="2"/>
-        <v>0.22159745217556362</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" si="0"/>
-        <v>901.19352953514158</v>
+        <v>0.212998708554617</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>933.515563774764</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="3"/>
-        <v>1.7319822752333413E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0358658081536546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="1"/>
-        <v>0.17099985249700181</v>
+        <v>0.412394522350645</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>0.21299870855461714</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" si="0"/>
-        <v>933.51556377476379</v>
+        <v>0.43119772718215</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>945.943454198639</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="3"/>
-        <v>3.586580815365456E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.013312997561199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="1"/>
-        <v>0.412394522350645</v>
+        <v>0.400181416493661</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="2"/>
-        <v>0.43119772718214988</v>
-      </c>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>945.94345419863851</v>
+        <v>0.415565067607617</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>956.336438922978</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="3"/>
-        <v>1.3312997561198973E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.010986898506681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="1"/>
-        <v>0.40018141649366051</v>
+        <v>0.301551531677458</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="2"/>
-        <v>0.41556506760761736</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>956.33643892297823</v>
+        <v>0.330797084648881</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>977.825090968109</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="3"/>
-        <v>1.0986898506681039E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0224697618646959</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>0.30155153167745791</v>
+        <v>0.172091715180927</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>0.33079708464888063</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>977.82509096810884</v>
+        <v>0.300688520678321</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>1085.10780733326</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="3"/>
-        <v>2.2469761864695889E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.109715650944213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="1"/>
-        <v>0.17209171518092661</v>
+        <v>-0.455797231662007</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="2"/>
-        <v>0.30068852067832114</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>1085.1078073332592</v>
+        <v>-0.530387552094918</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>936.379164698035</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="3"/>
-        <v>0.109715650944213</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-0.137063471140934</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="1"/>
-        <v>-0.45579723166200703</v>
+        <v>0.042977111753051</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="2"/>
-        <v>-0.53038755209491784</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>936.37916469803497</v>
+        <v>0.148151541289764</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>1030.80419413291</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="3"/>
-        <v>-0.1370634711409339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.100840592139107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="1"/>
-        <v>4.2977111753050995E-2</v>
+        <v>-0.236352959215155</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="2"/>
-        <v>0.14815154128976379</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>1030.804194132907</v>
+        <v>-0.210250882243126</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>1066.03791990063</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="3"/>
-        <v>0.10084059213910679</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0341808133574415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="1"/>
-        <v>-0.23635295921515515</v>
+        <v>0.29165758934523</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="2"/>
-        <v>-0.21025088224312566</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>1066.0379199006318</v>
+        <v>0.411564651787008</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>1165.0002737638</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="3"/>
-        <v>3.4180813357441477E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="1"/>
-        <v>0.2916575893452299</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="2"/>
-        <v>0.41156465178700785</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" si="0"/>
-        <v>1165.000273763799</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="3"/>
-        <v>9.2831926534463011E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+        <v>0.092831926534463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B20" s="6">
+        <f>B19*(1+D20)</f>
+        <v>81199.691873782</v>
+      </c>
+      <c r="C20" s="6">
+        <f>B20*F20/10000</f>
+        <v>9459.7641032956</v>
+      </c>
+      <c r="D20" s="7">
+        <f>SUM(D7:D15,D19)/10</f>
+        <v>0.277559547933869</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6">
+        <v>1165</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="6">
         <f>B20*(1+D21)</f>
-        <v>81199.691873781951</v>
-      </c>
-      <c r="C21" s="5">
+        <v>103409.066644313</v>
+      </c>
+      <c r="C21" s="6">
         <f>B21*F21/10000</f>
-        <v>9459.764103295598</v>
-      </c>
-      <c r="D21" s="6">
-        <f>SUM(D8:D16,D20)/10</f>
-        <v>0.27755954793386922</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5">
+        <v>12047.1562640625</v>
+      </c>
+      <c r="D21" s="7">
+        <f>SUM(D8:D15,D19:D20)/10</f>
+        <v>0.27351550551514</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6">
         <v>1165</v>
       </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="5">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="6">
         <f>B21*(1+D22)</f>
-        <v>103409.06664431303</v>
-      </c>
-      <c r="C22" s="5">
+        <v>131859.06880341</v>
+      </c>
+      <c r="C22" s="6">
         <f>B22*F22/10000</f>
-        <v>12047.156264062469</v>
-      </c>
-      <c r="D22" s="6">
-        <f>SUM(D9:D16,D20:D21)/10</f>
-        <v>0.27351550551514003</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5">
+        <v>15361.5815155972</v>
+      </c>
+      <c r="D22" s="7">
+        <f>SUM(D9:D15,D19:D21)/10</f>
+        <v>0.27512096455675</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6">
         <v>1165</v>
       </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="5">
-        <f>B22*(1+D23)</f>
-        <v>131859.0688034097</v>
-      </c>
-      <c r="C23" s="5">
-        <f>B23*F23/10000</f>
-        <v>15361.58151559723</v>
-      </c>
-      <c r="D23" s="6">
-        <f>SUM(D10:D16,D20:D22)/10</f>
-        <v>0.27512096455675006</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5">
-        <v>1165</v>
-      </c>
-      <c r="G23" s="4"/>
+      <c r="G22" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>